--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,99 +422,98 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Thông tin chung</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Ký hiệu chữ viết tắt</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Chữ viết đầy đủ</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Báo cáo của Ban Tổng Giám đốc</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TMDT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Thương mại điện tử</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Báo cáo kiểm toán độc lập</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NHTM</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ngân hàng thương mại</t>
+          <t>5-6</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bảng cần đổi kế toán riêng</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NHTW</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ngân hàng Trung Ương</t>
+          <t>7.9</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Báo cáo kết quả hoạt động kinh doanh riêng</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CNH- HDH</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Công nghiệp hóa - hiện đại hóa</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Báo cáo lưu chuyển tiền tệ riêng</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UBND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ủy ban nhân dân</t>
+          <t>11.12</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Thuyết minh báo cáo tài chính riêng</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HDND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Hội đồng nhân dân</t>
+          <t>13 - 79</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Phụ lực 1 - Danh sách cống ty con tại ngày 31 tháng 12 năm 2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80 - 83</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bảng cần đổi kế toán riêng</t>
+          <t>Bảng cân đối kế toán riêng</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>11-12</t>
         </is>
       </c>
     </row>
@@ -508,12 +508,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Phụ lực 1 - Danh sách cống ty con tại ngày 31 tháng 12 năm 2022</t>
+          <t>Phụ lục 1 - Danh sách công ty con tại ngày 31 tháng 12 năm 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>80 - 83</t>
+          <t>80.83</t>
         </is>
       </c>
     </row>
